--- a/COTS_data.xlsx
+++ b/COTS_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14620"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="COTS_data" sheetId="1" r:id="rId1"/>
@@ -1720,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1759,149 +1759,149 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C2">
-        <v>-13.758333333333301</v>
+        <v>-23.908333333333299</v>
       </c>
       <c r="D2">
-        <v>143.99166666666599</v>
+        <v>152.40833333333299</v>
       </c>
       <c r="E2" s="1">
-        <v>41309</v>
+        <v>40874</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="C3">
-        <v>-13.783333333333299</v>
+        <v>-23.908333333333299</v>
       </c>
       <c r="D3">
-        <v>144.266666666666</v>
+        <v>152.40833333333299</v>
       </c>
       <c r="E3" s="1">
-        <v>41975</v>
+        <v>41143</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>-13.8666666666666</v>
+        <v>-23.908333333333299</v>
       </c>
       <c r="D4">
-        <v>144.09166666666599</v>
+        <v>152.40833333333299</v>
       </c>
       <c r="E4" s="1">
-        <v>41307</v>
+        <v>41526</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C5">
-        <v>-13.8666666666666</v>
+        <v>-23.858333333333299</v>
       </c>
       <c r="D5">
-        <v>144.09166666666599</v>
+        <v>152.36666666666599</v>
       </c>
       <c r="E5" s="1">
-        <v>41975</v>
+        <v>40875</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>0.41299999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="C6">
-        <v>-14.283333333333299</v>
+        <v>-23.858333333333299</v>
       </c>
       <c r="D6">
-        <v>145.17500000000001</v>
+        <v>152.36666666666599</v>
       </c>
       <c r="E6" s="1">
-        <v>41977</v>
+        <v>41527</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>-15.316666666666601</v>
+        <v>-23.808333333333302</v>
       </c>
       <c r="D7">
-        <v>145.766666666666</v>
+        <v>152.291666666666</v>
       </c>
       <c r="E7" s="1">
-        <v>41210</v>
+        <v>40876</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1910,128 +1910,128 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C8">
-        <v>-15.466666666666599</v>
+        <v>-23.808333333333302</v>
       </c>
       <c r="D8">
-        <v>145.683333333333</v>
+        <v>152.291666666666</v>
       </c>
       <c r="E8" s="1">
-        <v>41191</v>
+        <v>41529</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C9">
-        <v>-15.5583333333333</v>
+        <v>-23.758333333333301</v>
       </c>
       <c r="D9">
-        <v>145.65</v>
+        <v>152.266666666666</v>
       </c>
       <c r="E9" s="1">
-        <v>41191</v>
+        <v>40877</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.36599999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C10">
-        <v>-15.5583333333333</v>
+        <v>-23.758333333333301</v>
       </c>
       <c r="D10">
-        <v>145.65</v>
+        <v>152.266666666666</v>
       </c>
       <c r="E10" s="1">
-        <v>41969</v>
+        <v>41530</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>2.9670000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C11">
-        <v>-16.0833333333333</v>
+        <v>-23.5416666666666</v>
       </c>
       <c r="D11">
-        <v>145.72499999999999</v>
+        <v>151.73333333333301</v>
       </c>
       <c r="E11" s="1">
-        <v>41282</v>
+        <v>40881</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.88200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="C12">
-        <v>-18.141666666666602</v>
+        <v>-23.5416666666666</v>
       </c>
       <c r="D12">
-        <v>146.97499999999999</v>
+        <v>151.73333333333301</v>
       </c>
       <c r="E12" s="1">
-        <v>41419</v>
+        <v>41532</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2040,24 +2040,24 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C13">
-        <v>-19.766666666666602</v>
+        <v>-23.508333333333301</v>
       </c>
       <c r="D13">
-        <v>149.36666666666599</v>
+        <v>151.77500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>41389</v>
+        <v>40878</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2066,24 +2066,24 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C14">
-        <v>-19.808333333333302</v>
+        <v>-23.508333333333301</v>
       </c>
       <c r="D14">
-        <v>149.42500000000001</v>
+        <v>151.77500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>41388</v>
+        <v>41531</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2092,50 +2092,50 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C15">
-        <v>-20.033333333333299</v>
+        <v>-23.5</v>
       </c>
       <c r="D15">
-        <v>149.683333333333</v>
+        <v>152.06666666666601</v>
       </c>
       <c r="E15" s="1">
-        <v>41383</v>
+        <v>41144</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C16">
-        <v>-20.891666666666602</v>
+        <v>-23.3333333333333</v>
       </c>
       <c r="D16">
-        <v>150.958333333333</v>
+        <v>151.96666666666599</v>
       </c>
       <c r="E16" s="1">
-        <v>41617</v>
+        <v>41146</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2144,206 +2144,206 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C17">
-        <v>-20.966666666666601</v>
+        <v>-23.3333333333333</v>
       </c>
       <c r="D17">
-        <v>150.916666666666</v>
+        <v>151.96666666666599</v>
       </c>
       <c r="E17" s="1">
-        <v>41618</v>
+        <v>41871</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C18">
-        <v>-20.966666666666601</v>
+        <v>-23.274999999999999</v>
       </c>
       <c r="D18">
-        <v>150.916666666666</v>
+        <v>151.94166666666601</v>
       </c>
       <c r="E18" s="1">
-        <v>40925</v>
+        <v>41147</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>7.6999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C19">
-        <v>-21.016666666666602</v>
+        <v>-23.274999999999999</v>
       </c>
       <c r="D19">
-        <v>150.60833333333301</v>
+        <v>151.94166666666601</v>
       </c>
       <c r="E19" s="1">
-        <v>41620</v>
+        <v>41533</v>
       </c>
       <c r="F19">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>2.9569999999999999</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C20">
-        <v>-21.016666666666602</v>
+        <v>-23.274999999999999</v>
       </c>
       <c r="D20">
-        <v>150.60833333333301</v>
+        <v>151.94166666666601</v>
       </c>
       <c r="E20" s="1">
-        <v>40864</v>
+        <v>41870</v>
       </c>
       <c r="F20">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.2270000000000001</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C21">
-        <v>-21.033333333333299</v>
+        <v>-23.183333333333302</v>
       </c>
       <c r="D21">
-        <v>150.86666666666599</v>
+        <v>151.90833333333299</v>
       </c>
       <c r="E21" s="1">
-        <v>41616</v>
+        <v>41535</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.63400000000000001</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="C22">
-        <v>-21.058333333333302</v>
+        <v>-22.033333333333299</v>
       </c>
       <c r="D22">
-        <v>150.77500000000001</v>
+        <v>152.59166666666599</v>
       </c>
       <c r="E22" s="1">
-        <v>41619</v>
+        <v>41152</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1.7410000000000001</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="C23">
-        <v>-21.058333333333302</v>
+        <v>-22.024999999999999</v>
       </c>
       <c r="D23">
-        <v>150.77500000000001</v>
+        <v>152.15</v>
       </c>
       <c r="E23" s="1">
-        <v>40926</v>
+        <v>41157</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.52400000000000002</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C24">
-        <v>-21.475000000000001</v>
+        <v>-22.024999999999999</v>
       </c>
       <c r="D24">
-        <v>151.47499999999999</v>
+        <v>152.15</v>
       </c>
       <c r="E24" s="1">
-        <v>41614</v>
+        <v>41878</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2352,24 +2352,24 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C25">
-        <v>-21.475000000000001</v>
+        <v>-22.008333333333301</v>
       </c>
       <c r="D25">
-        <v>151.47499999999999</v>
+        <v>152.65833333333299</v>
       </c>
       <c r="E25" s="1">
-        <v>40920</v>
+        <v>40915</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2378,128 +2378,128 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C26">
-        <v>-21.4166666666666</v>
+        <v>-22.008333333333301</v>
       </c>
       <c r="D26">
-        <v>151.641666666666</v>
+        <v>152.65833333333299</v>
       </c>
       <c r="E26" s="1">
-        <v>41613</v>
+        <v>41153</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.129</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C27">
-        <v>-21.4166666666666</v>
+        <v>-22.008333333333301</v>
       </c>
       <c r="D27">
-        <v>151.641666666666</v>
+        <v>152.65833333333299</v>
       </c>
       <c r="E27" s="1">
-        <v>40919</v>
+        <v>41537</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C28">
-        <v>-21.308333333333302</v>
+        <v>-22</v>
       </c>
       <c r="D28">
-        <v>152.44166666666601</v>
+        <v>152.458333333333</v>
       </c>
       <c r="E28" s="1">
-        <v>41608</v>
+        <v>40914</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C29">
-        <v>-21.308333333333302</v>
+        <v>-22</v>
       </c>
       <c r="D29">
-        <v>152.44166666666601</v>
+        <v>152.458333333333</v>
       </c>
       <c r="E29" s="1">
-        <v>40867</v>
+        <v>41524</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="C30">
-        <v>-21.108333333333299</v>
+        <v>-21.983333333333299</v>
       </c>
       <c r="D30">
-        <v>152.55000000000001</v>
+        <v>152.47499999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>41610</v>
+        <v>40872</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2508,50 +2508,50 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31">
+        <v>-21.983333333333299</v>
+      </c>
+      <c r="D31">
+        <v>152.47499999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>41148</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>-21.108333333333299</v>
-      </c>
-      <c r="D31">
-        <v>152.55000000000001</v>
-      </c>
-      <c r="E31" s="1">
-        <v>40866</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C32">
-        <v>-21.341666666666601</v>
+        <v>-21.983333333333299</v>
       </c>
       <c r="D32">
-        <v>152.55000000000001</v>
+        <v>152.47499999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>41607</v>
+        <v>41863</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2560,24 +2560,24 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C33">
-        <v>-21.341666666666601</v>
+        <v>-21.983333333333299</v>
       </c>
       <c r="D33">
-        <v>152.55000000000001</v>
+        <v>152.65</v>
       </c>
       <c r="E33" s="1">
-        <v>40868</v>
+        <v>40916</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2586,24 +2586,24 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="C34">
-        <v>-21.433333333333302</v>
+        <v>-21.983333333333299</v>
       </c>
       <c r="D34">
-        <v>152.57499999999999</v>
+        <v>152.65</v>
       </c>
       <c r="E34" s="1">
-        <v>41606</v>
+        <v>41537</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2612,24 +2612,24 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C35">
-        <v>-21.433333333333302</v>
+        <v>-21.9583333333333</v>
       </c>
       <c r="D35">
-        <v>152.57499999999999</v>
+        <v>152.31666666666601</v>
       </c>
       <c r="E35" s="1">
-        <v>40869</v>
+        <v>40957</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2638,24 +2638,24 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C36">
-        <v>-21.8666666666666</v>
+        <v>-21.9583333333333</v>
       </c>
       <c r="D36">
-        <v>152.17500000000001</v>
+        <v>152.31666666666601</v>
       </c>
       <c r="E36" s="1">
-        <v>41868</v>
+        <v>41519</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2664,30 +2664,30 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C37">
-        <v>-21.8666666666666</v>
+        <v>-21.9583333333333</v>
       </c>
       <c r="D37">
-        <v>152.17500000000001</v>
+        <v>152.6</v>
       </c>
       <c r="E37" s="1">
-        <v>41157</v>
+        <v>40917</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H37">
         <v>30</v>
@@ -2695,19 +2695,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C38">
         <v>-21.9583333333333</v>
       </c>
       <c r="D38">
-        <v>152.31666666666601</v>
+        <v>152.6</v>
       </c>
       <c r="E38" s="1">
-        <v>41519</v>
+        <v>41602</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2716,24 +2716,24 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C39">
-        <v>-21.9583333333333</v>
+        <v>-21.875</v>
       </c>
       <c r="D39">
-        <v>152.31666666666601</v>
+        <v>152.50833333333301</v>
       </c>
       <c r="E39" s="1">
-        <v>40957</v>
+        <v>40918</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2742,24 +2742,24 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C40">
-        <v>-21.558333333333302</v>
+        <v>-21.875</v>
       </c>
       <c r="D40">
-        <v>152.541666666666</v>
+        <v>152.50833333333301</v>
       </c>
       <c r="E40" s="1">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2768,24 +2768,24 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C41">
-        <v>-21.558333333333302</v>
+        <v>-21.8666666666666</v>
       </c>
       <c r="D41">
-        <v>152.541666666666</v>
+        <v>152.17500000000001</v>
       </c>
       <c r="E41" s="1">
-        <v>40871</v>
+        <v>41157</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2794,24 +2794,24 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C42">
-        <v>-21.025833333333299</v>
+        <v>-21.8666666666666</v>
       </c>
       <c r="D42">
-        <v>150.37299999999999</v>
+        <v>152.17500000000001</v>
       </c>
       <c r="E42" s="1">
-        <v>41753</v>
+        <v>41868</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2820,24 +2820,24 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="C43">
-        <v>-21.025833333333299</v>
+        <v>-21.725000000000001</v>
       </c>
       <c r="D43">
-        <v>150.37299999999999</v>
+        <v>152.558333333333</v>
       </c>
       <c r="E43" s="1">
-        <v>40927</v>
+        <v>41151</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2846,24 +2846,24 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C44">
-        <v>-22</v>
+        <v>-21.725000000000001</v>
       </c>
       <c r="D44">
-        <v>152.458333333333</v>
+        <v>152.558333333333</v>
       </c>
       <c r="E44" s="1">
-        <v>41524</v>
+        <v>41877</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2872,24 +2872,24 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>-22</v>
+        <v>-21.558333333333302</v>
       </c>
       <c r="D45">
-        <v>152.458333333333</v>
+        <v>152.541666666666</v>
       </c>
       <c r="E45" s="1">
-        <v>40914</v>
+        <v>40871</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2898,24 +2898,24 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>-16.05</v>
+        <v>-21.558333333333302</v>
       </c>
       <c r="D46">
-        <v>145.85833333333301</v>
+        <v>152.541666666666</v>
       </c>
       <c r="E46" s="1">
-        <v>40957</v>
+        <v>41604</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2924,24 +2924,24 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>-16.05</v>
+        <v>-21.4916666666666</v>
       </c>
       <c r="D47">
-        <v>145.85833333333301</v>
+        <v>152.558333333333</v>
       </c>
       <c r="E47" s="1">
-        <v>41285</v>
+        <v>40870</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2950,76 +2950,76 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>-16.05</v>
+        <v>-21.4916666666666</v>
       </c>
       <c r="D48">
-        <v>145.85833333333301</v>
+        <v>152.558333333333</v>
       </c>
       <c r="E48" s="1">
-        <v>41714</v>
+        <v>41150</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>-16.716666666666601</v>
+        <v>-21.4916666666666</v>
       </c>
       <c r="D49">
-        <v>146.06666666666601</v>
+        <v>152.558333333333</v>
       </c>
       <c r="E49" s="1">
-        <v>41716</v>
+        <v>41606</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.23300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C50">
-        <v>-16.716666666666601</v>
+        <v>-21.475000000000001</v>
       </c>
       <c r="D50">
-        <v>146.06666666666601</v>
+        <v>151.47499999999999</v>
       </c>
       <c r="E50" s="1">
-        <v>40959</v>
+        <v>40920</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3028,24 +3028,24 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>-11.925000000000001</v>
+        <v>-21.475000000000001</v>
       </c>
       <c r="D51">
-        <v>143.683333333333</v>
+        <v>151.47499999999999</v>
       </c>
       <c r="E51" s="1">
-        <v>41314</v>
+        <v>41614</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3054,24 +3054,24 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>-11.925000000000001</v>
+        <v>-21.433333333333302</v>
       </c>
       <c r="D52">
-        <v>143.683333333333</v>
+        <v>152.57499999999999</v>
       </c>
       <c r="E52" s="1">
-        <v>41314</v>
+        <v>40869</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3080,24 +3080,24 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>-11.925000000000001</v>
+        <v>-21.433333333333302</v>
       </c>
       <c r="D53">
-        <v>143.683333333333</v>
+        <v>152.57499999999999</v>
       </c>
       <c r="E53" s="1">
-        <v>41314</v>
+        <v>41606</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3106,76 +3106,76 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C54">
-        <v>-9.8678333333333299</v>
+        <v>-21.4166666666666</v>
       </c>
       <c r="D54">
-        <v>143.39449999999999</v>
+        <v>151.641666666666</v>
       </c>
       <c r="E54" s="1">
-        <v>41323</v>
+        <v>40919</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C55">
-        <v>-9.952</v>
+        <v>-21.4166666666666</v>
       </c>
       <c r="D55">
-        <v>143.28966666666599</v>
+        <v>151.641666666666</v>
       </c>
       <c r="E55" s="1">
-        <v>41321</v>
+        <v>41613</v>
       </c>
       <c r="F55">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.56899999999999995</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>-20.008333333333301</v>
+        <v>-21.341666666666601</v>
       </c>
       <c r="D56">
-        <v>150.32499999999999</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="E56" s="1">
-        <v>41161</v>
+        <v>40868</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3184,128 +3184,128 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>-13.4166666666666</v>
+        <v>-21.341666666666601</v>
       </c>
       <c r="D57">
-        <v>143.75</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="E57" s="1">
-        <v>41311</v>
+        <v>41607</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>-20.175000000000001</v>
+        <v>-21.308333333333302</v>
       </c>
       <c r="D58">
-        <v>149.02500000000001</v>
+        <v>152.44166666666601</v>
       </c>
       <c r="E58" s="1">
-        <v>41384</v>
+        <v>40867</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H58">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>-15.4166666666666</v>
+        <v>-21.308333333333302</v>
       </c>
       <c r="D59">
-        <v>145.42500000000001</v>
+        <v>152.44166666666601</v>
       </c>
       <c r="E59" s="1">
-        <v>41211</v>
+        <v>41608</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>0.68500000000000005</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H59">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>-23.758333333333301</v>
+        <v>-21.108333333333299</v>
       </c>
       <c r="D60">
-        <v>152.266666666666</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="E60" s="1">
-        <v>41530</v>
+        <v>40866</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>-23.758333333333301</v>
+        <v>-21.108333333333299</v>
       </c>
       <c r="D61">
-        <v>152.266666666666</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="E61" s="1">
-        <v>40877</v>
+        <v>41610</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3314,102 +3314,102 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>-23.274999999999999</v>
+        <v>-21.058333333333302</v>
       </c>
       <c r="D62">
-        <v>151.94166666666601</v>
+        <v>150.77500000000001</v>
       </c>
       <c r="E62" s="1">
-        <v>41870</v>
+        <v>40926</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H62">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>-23.274999999999999</v>
+        <v>-21.058333333333302</v>
       </c>
       <c r="D63">
-        <v>151.94166666666601</v>
+        <v>150.77500000000001</v>
       </c>
       <c r="E63" s="1">
-        <v>41533</v>
+        <v>41619</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="H63">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>-23.274999999999999</v>
+        <v>-21.033333333333299</v>
       </c>
       <c r="D64">
-        <v>151.94166666666601</v>
+        <v>150.86666666666599</v>
       </c>
       <c r="E64" s="1">
-        <v>41147</v>
+        <v>41616</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="H64">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="C65">
-        <v>-14.55</v>
+        <v>-21.025833333333299</v>
       </c>
       <c r="D65">
-        <v>145.583333333333</v>
+        <v>150.37299999999999</v>
       </c>
       <c r="E65" s="1">
-        <v>41205</v>
+        <v>40927</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3418,24 +3418,24 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="C66">
-        <v>-14.55</v>
+        <v>-21.025833333333299</v>
       </c>
       <c r="D66">
-        <v>145.583333333333</v>
+        <v>150.37299999999999</v>
       </c>
       <c r="E66" s="1">
-        <v>41972</v>
+        <v>41753</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3444,76 +3444,76 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C67">
-        <v>-13.275</v>
+        <v>-21.016666666666602</v>
       </c>
       <c r="D67">
-        <v>143.69166666666601</v>
+        <v>150.60833333333301</v>
       </c>
       <c r="E67" s="1">
-        <v>41311</v>
+        <v>40864</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G67">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="H67">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>-18.658333333333299</v>
+        <v>-21.016666666666602</v>
       </c>
       <c r="D68">
-        <v>147.708333333333</v>
+        <v>150.60833333333301</v>
       </c>
       <c r="E68" s="1">
-        <v>41761</v>
+        <v>41620</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2.9569999999999999</v>
       </c>
       <c r="H68">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C69">
-        <v>-18.658333333333299</v>
+        <v>-20.9916666666666</v>
       </c>
       <c r="D69">
-        <v>147.708333333333</v>
+        <v>150.52500000000001</v>
       </c>
       <c r="E69" s="1">
-        <v>41024</v>
+        <v>40922</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3522,24 +3522,24 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C70">
-        <v>-18.658333333333299</v>
+        <v>-20.9916666666666</v>
       </c>
       <c r="D70">
-        <v>147.708333333333</v>
+        <v>150.52500000000001</v>
       </c>
       <c r="E70" s="1">
-        <v>41416</v>
+        <v>41748</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3548,76 +3548,76 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>-16.2083333333333</v>
+        <v>-20.966666666666601</v>
       </c>
       <c r="D71">
-        <v>145.80000000000001</v>
+        <v>150.916666666666</v>
       </c>
       <c r="E71" s="1">
-        <v>41285</v>
+        <v>40925</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71">
-        <v>4.2999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>-22.008333333333301</v>
+        <v>-20.966666666666601</v>
       </c>
       <c r="D72">
-        <v>152.65833333333299</v>
+        <v>150.916666666666</v>
       </c>
       <c r="E72" s="1">
-        <v>41537</v>
+        <v>41618</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>3.1E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H72">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>-22.008333333333301</v>
+        <v>-20.941666666666599</v>
       </c>
       <c r="D73">
-        <v>152.65833333333299</v>
+        <v>150.53333333333299</v>
       </c>
       <c r="E73" s="1">
-        <v>40915</v>
+        <v>40863</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3626,76 +3626,76 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>-22.008333333333301</v>
+        <v>-20.941666666666599</v>
       </c>
       <c r="D74">
-        <v>152.65833333333299</v>
+        <v>150.53333333333299</v>
       </c>
       <c r="E74" s="1">
-        <v>41153</v>
+        <v>41620</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C75">
-        <v>-14.066666666666601</v>
+        <v>-20.908333333333299</v>
       </c>
       <c r="D75">
-        <v>144.24166666666599</v>
+        <v>150.03333333333299</v>
       </c>
       <c r="E75" s="1">
-        <v>41306</v>
+        <v>40928</v>
       </c>
       <c r="F75">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.24399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C76">
-        <v>-19.9166666666666</v>
+        <v>-20.908333333333299</v>
       </c>
       <c r="D76">
-        <v>150.19999999999999</v>
+        <v>150.03333333333299</v>
       </c>
       <c r="E76" s="1">
-        <v>41161</v>
+        <v>41752</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3704,102 +3704,102 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>-14</v>
+        <v>-20.891666666666602</v>
       </c>
       <c r="D77">
-        <v>144.10833333333301</v>
+        <v>150.958333333333</v>
       </c>
       <c r="E77" s="1">
-        <v>41307</v>
+        <v>41617</v>
       </c>
       <c r="F77">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.22900000000000001</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C78">
-        <v>-20.533333333333299</v>
+        <v>-20.5416666666666</v>
       </c>
       <c r="D78">
-        <v>150.38333333333301</v>
+        <v>149.94999999999999</v>
       </c>
       <c r="E78" s="1">
-        <v>41160</v>
+        <v>41159</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C79">
-        <v>-20.5416666666666</v>
+        <v>-20.533333333333299</v>
       </c>
       <c r="D79">
-        <v>149.94999999999999</v>
+        <v>150.38333333333301</v>
       </c>
       <c r="E79" s="1">
-        <v>41159</v>
+        <v>41160</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H79">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="C80">
-        <v>-13.625</v>
+        <v>-20.483333333333299</v>
       </c>
       <c r="D80">
-        <v>144.10833333333301</v>
+        <v>150.208333333333</v>
       </c>
       <c r="E80" s="1">
-        <v>41975</v>
+        <v>41159</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3808,50 +3808,50 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="C81">
-        <v>-12.591666666666599</v>
+        <v>-20.175000000000001</v>
       </c>
       <c r="D81">
-        <v>143.55000000000001</v>
+        <v>149.02500000000001</v>
       </c>
       <c r="E81" s="1">
-        <v>41312</v>
+        <v>41384</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>9.4E-2</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C82">
-        <v>-13.975</v>
+        <v>-20.141666666666602</v>
       </c>
       <c r="D82">
-        <v>144.458333333333</v>
+        <v>149.94166666666601</v>
       </c>
       <c r="E82" s="1">
-        <v>41976</v>
+        <v>41160</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3860,50 +3860,50 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="C83">
-        <v>-18.824999999999999</v>
+        <v>-20.091666666666601</v>
       </c>
       <c r="D83">
-        <v>147.641666666666</v>
+        <v>148.875</v>
       </c>
       <c r="E83" s="1">
-        <v>41414</v>
+        <v>41385</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>2.7E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H83">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="C84">
-        <v>-21.4916666666666</v>
+        <v>-20.066666666666599</v>
       </c>
       <c r="D84">
-        <v>152.558333333333</v>
+        <v>148.891666666666</v>
       </c>
       <c r="E84" s="1">
-        <v>41606</v>
+        <v>41386</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3912,76 +3912,76 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="C85">
-        <v>-21.4916666666666</v>
+        <v>-20.033333333333299</v>
       </c>
       <c r="D85">
-        <v>152.558333333333</v>
+        <v>149.683333333333</v>
       </c>
       <c r="E85" s="1">
-        <v>41150</v>
+        <v>41383</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3.2000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H85">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86">
+        <v>-20.008333333333301</v>
+      </c>
+      <c r="D86">
+        <v>150.32499999999999</v>
+      </c>
+      <c r="E86" s="1">
+        <v>41161</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>12</v>
-      </c>
-      <c r="C86">
-        <v>-21.4916666666666</v>
-      </c>
-      <c r="D86">
-        <v>152.558333333333</v>
-      </c>
-      <c r="E86" s="1">
-        <v>40870</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C87">
-        <v>-20.141666666666602</v>
+        <v>-19.9166666666666</v>
       </c>
       <c r="D87">
-        <v>149.94166666666601</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="E87" s="1">
-        <v>41160</v>
+        <v>41161</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3990,24 +3990,24 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="C88">
-        <v>-23.508333333333301</v>
+        <v>-19.808333333333302</v>
       </c>
       <c r="D88">
-        <v>151.77500000000001</v>
+        <v>149.42500000000001</v>
       </c>
       <c r="E88" s="1">
-        <v>41531</v>
+        <v>41388</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -4016,24 +4016,24 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C89">
-        <v>-23.508333333333301</v>
+        <v>-19.808333333333302</v>
       </c>
       <c r="D89">
-        <v>151.77500000000001</v>
+        <v>150.15</v>
       </c>
       <c r="E89" s="1">
-        <v>40878</v>
+        <v>41379</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -4042,154 +4042,154 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="C90">
-        <v>-14.8916666666666</v>
+        <v>-19.766666666666602</v>
       </c>
       <c r="D90">
-        <v>145.47499999999999</v>
+        <v>149.36666666666599</v>
       </c>
       <c r="E90" s="1">
-        <v>41984</v>
+        <v>41389</v>
       </c>
       <c r="F90">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>1.8180000000000001</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C91">
-        <v>-14.716666666666599</v>
+        <v>-19.758333333333301</v>
       </c>
       <c r="D91">
-        <v>145.375</v>
+        <v>150.09166666666599</v>
       </c>
       <c r="E91" s="1">
-        <v>41201</v>
+        <v>41381</v>
       </c>
       <c r="F91">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.85099999999999998</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="C92">
-        <v>-14.716666666666599</v>
+        <v>-19.6666666666666</v>
       </c>
       <c r="D92">
-        <v>145.375</v>
+        <v>149.92500000000001</v>
       </c>
       <c r="E92" s="1">
-        <v>41983</v>
+        <v>41381</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C93">
-        <v>-23.858333333333299</v>
+        <v>-18.850000000000001</v>
       </c>
       <c r="D93">
-        <v>152.36666666666599</v>
+        <v>146.541666666666</v>
       </c>
       <c r="E93" s="1">
-        <v>41527</v>
+        <v>41489</v>
       </c>
       <c r="F93">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1.1619999999999999</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="C94">
-        <v>-23.858333333333299</v>
+        <v>-18.824999999999999</v>
       </c>
       <c r="D94">
-        <v>152.36666666666599</v>
+        <v>147.641666666666</v>
       </c>
       <c r="E94" s="1">
-        <v>40875</v>
+        <v>41414</v>
       </c>
       <c r="F94">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.97</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H94">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C95">
-        <v>-17.783333333333299</v>
+        <v>-18.658333333333299</v>
       </c>
       <c r="D95">
-        <v>146.516666666666</v>
+        <v>147.708333333333</v>
       </c>
       <c r="E95" s="1">
-        <v>40970</v>
+        <v>41024</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4198,24 +4198,24 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C96">
-        <v>-17.533333333333299</v>
+        <v>-18.658333333333299</v>
       </c>
       <c r="D96">
-        <v>146.38333333333301</v>
+        <v>147.708333333333</v>
       </c>
       <c r="E96" s="1">
-        <v>41720</v>
+        <v>41416</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4224,24 +4224,24 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C97">
-        <v>-17.533333333333299</v>
+        <v>-18.658333333333299</v>
       </c>
       <c r="D97">
-        <v>146.38333333333301</v>
+        <v>147.708333333333</v>
       </c>
       <c r="E97" s="1">
-        <v>40968</v>
+        <v>41761</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4250,76 +4250,76 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C98">
-        <v>-16.925000000000001</v>
+        <v>-18.633333333333301</v>
       </c>
       <c r="D98">
-        <v>145.98333333333301</v>
+        <v>147.058333333333</v>
       </c>
       <c r="E98" s="1">
-        <v>40971</v>
+        <v>41427</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H98">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="C99">
-        <v>-18.5</v>
+        <v>-18.633333333333301</v>
       </c>
       <c r="D99">
-        <v>147.03333333333299</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="E99" s="1">
-        <v>41759</v>
+        <v>41020</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="C100">
-        <v>-18.5</v>
+        <v>-18.633333333333301</v>
       </c>
       <c r="D100">
-        <v>147.03333333333299</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="E100" s="1">
-        <v>41016</v>
+        <v>41722</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4328,50 +4328,50 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C101">
-        <v>-18.6166666666666</v>
+        <v>-18.633333333333301</v>
       </c>
       <c r="D101">
-        <v>147.558333333333</v>
+        <v>147.42500000000001</v>
       </c>
       <c r="E101" s="1">
-        <v>41763</v>
+        <v>41021</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C102">
-        <v>-18.6166666666666</v>
+        <v>-18.633333333333301</v>
       </c>
       <c r="D102">
-        <v>147.558333333333</v>
+        <v>147.42500000000001</v>
       </c>
       <c r="E102" s="1">
-        <v>41023</v>
+        <v>41760</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4380,76 +4380,76 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C103">
-        <v>-15.1666666666666</v>
+        <v>-18.6166666666666</v>
       </c>
       <c r="D103">
-        <v>145.5</v>
+        <v>147.558333333333</v>
       </c>
       <c r="E103" s="1">
-        <v>41209</v>
+        <v>41023</v>
       </c>
       <c r="F103">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>2.0819999999999999</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="C104">
-        <v>-15.1666666666666</v>
+        <v>-18.6166666666666</v>
       </c>
       <c r="D104">
-        <v>145.5</v>
+        <v>147.558333333333</v>
       </c>
       <c r="E104" s="1">
-        <v>41984</v>
+        <v>41763</v>
       </c>
       <c r="F104">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>1.2949999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="H104">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C105">
-        <v>-21.983333333333299</v>
+        <v>-18.5833333333333</v>
       </c>
       <c r="D105">
-        <v>152.47499999999999</v>
+        <v>147.558333333333</v>
       </c>
       <c r="E105" s="1">
-        <v>41863</v>
+        <v>41022</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4458,24 +4458,24 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C106">
-        <v>-21.983333333333299</v>
+        <v>-18.5833333333333</v>
       </c>
       <c r="D106">
-        <v>152.47499999999999</v>
+        <v>147.558333333333</v>
       </c>
       <c r="E106" s="1">
-        <v>41148</v>
+        <v>41764</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4484,24 +4484,24 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C107">
-        <v>-21.983333333333299</v>
+        <v>-18.5</v>
       </c>
       <c r="D107">
-        <v>152.47499999999999</v>
+        <v>147.03333333333299</v>
       </c>
       <c r="E107" s="1">
-        <v>40872</v>
+        <v>41016</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4510,102 +4510,102 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C108">
-        <v>-16.758333333333301</v>
+        <v>-18.5</v>
       </c>
       <c r="D108">
-        <v>145.97999999999999</v>
+        <v>147.03333333333299</v>
       </c>
       <c r="E108" s="1">
-        <v>41289</v>
+        <v>41759</v>
       </c>
       <c r="F108">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.57099999999999995</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H108">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C109">
-        <v>-16.758333333333301</v>
+        <v>-18.483333333333299</v>
       </c>
       <c r="D109">
-        <v>145.97999999999999</v>
+        <v>146.88333333333301</v>
       </c>
       <c r="E109" s="1">
-        <v>40971</v>
+        <v>41017</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="C110">
-        <v>-14.008333333333301</v>
+        <v>-18.483333333333299</v>
       </c>
       <c r="D110">
-        <v>143.99166666666599</v>
+        <v>146.88333333333301</v>
       </c>
       <c r="E110" s="1">
-        <v>41308</v>
+        <v>41436</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
-        <v>1.2999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H110">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="C111">
-        <v>-18.633333333333301</v>
+        <v>-18.483333333333299</v>
       </c>
       <c r="D111">
-        <v>147.42500000000001</v>
+        <v>146.88333333333301</v>
       </c>
       <c r="E111" s="1">
-        <v>41760</v>
+        <v>41721</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4614,24 +4614,24 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C112">
-        <v>-18.633333333333301</v>
+        <v>-18.475000000000001</v>
       </c>
       <c r="D112">
-        <v>147.42500000000001</v>
+        <v>147</v>
       </c>
       <c r="E112" s="1">
-        <v>41021</v>
+        <v>41015</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4640,24 +4640,24 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="C113">
-        <v>-15.133333333333301</v>
+        <v>-18.475000000000001</v>
       </c>
       <c r="D113">
-        <v>145.69166666666601</v>
+        <v>147</v>
       </c>
       <c r="E113" s="1">
-        <v>41985</v>
+        <v>41756</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4666,30 +4666,30 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C114">
-        <v>-16.516666666666602</v>
+        <v>-18.441666666666599</v>
       </c>
       <c r="D114">
-        <v>146.016666666666</v>
+        <v>146.99166666666599</v>
       </c>
       <c r="E114" s="1">
-        <v>40958</v>
+        <v>41755</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H114">
         <v>56</v>
@@ -4697,45 +4697,45 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C115">
-        <v>-16.516666666666602</v>
+        <v>-18.433333333333302</v>
       </c>
       <c r="D115">
-        <v>146.016666666666</v>
+        <v>147.06666666666601</v>
       </c>
       <c r="E115" s="1">
-        <v>41715</v>
+        <v>41019</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C116">
-        <v>-16.516666666666602</v>
+        <v>-18.433333333333302</v>
       </c>
       <c r="D116">
-        <v>146.016666666666</v>
+        <v>147.06666666666601</v>
       </c>
       <c r="E116" s="1">
-        <v>41286</v>
+        <v>41757</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4744,24 +4744,24 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="C117">
-        <v>-18.850000000000001</v>
+        <v>-18.266666666666602</v>
       </c>
       <c r="D117">
-        <v>146.541666666666</v>
+        <v>147.391666666666</v>
       </c>
       <c r="E117" s="1">
-        <v>41489</v>
+        <v>41419</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4770,24 +4770,24 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="C118">
-        <v>-20.066666666666599</v>
+        <v>-18.141666666666602</v>
       </c>
       <c r="D118">
-        <v>148.891666666666</v>
+        <v>146.97499999999999</v>
       </c>
       <c r="E118" s="1">
-        <v>41386</v>
+        <v>41419</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4796,50 +4796,50 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C119">
-        <v>-13.908333333333299</v>
+        <v>-17.8333333333333</v>
       </c>
       <c r="D119">
-        <v>143.958333333333</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="E119" s="1">
-        <v>41308</v>
+        <v>40969</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>6.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C120">
-        <v>-17.233333333333299</v>
+        <v>-17.783333333333299</v>
       </c>
       <c r="D120">
-        <v>146.48333333333301</v>
+        <v>146.516666666666</v>
       </c>
       <c r="E120" s="1">
-        <v>40964</v>
+        <v>40970</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4848,24 +4848,24 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="C121">
-        <v>-18.633333333333301</v>
+        <v>-17.676666666666598</v>
       </c>
       <c r="D121">
-        <v>147.30000000000001</v>
+        <v>146.17500000000001</v>
       </c>
       <c r="E121" s="1">
-        <v>41722</v>
+        <v>41292</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -4874,24 +4874,24 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C122">
-        <v>-18.633333333333301</v>
+        <v>-17.533333333333299</v>
       </c>
       <c r="D122">
-        <v>147.30000000000001</v>
+        <v>146.38333333333301</v>
       </c>
       <c r="E122" s="1">
-        <v>41020</v>
+        <v>40968</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4900,76 +4900,76 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C123">
-        <v>-14.95</v>
+        <v>-17.533333333333299</v>
       </c>
       <c r="D123">
-        <v>145.49166666666599</v>
+        <v>146.38333333333301</v>
       </c>
       <c r="E123" s="1">
-        <v>41208</v>
+        <v>41720</v>
       </c>
       <c r="F123">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.95799999999999996</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C124">
-        <v>-14.95</v>
+        <v>-17.483333333333299</v>
       </c>
       <c r="D124">
-        <v>145.49166666666599</v>
+        <v>146.391666666666</v>
       </c>
       <c r="E124" s="1">
-        <v>41984</v>
+        <v>40967</v>
       </c>
       <c r="F124">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>1.5189999999999999</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="C125">
-        <v>-22.033333333333299</v>
+        <v>-17.483333333333299</v>
       </c>
       <c r="D125">
-        <v>152.59166666666599</v>
+        <v>146.391666666666</v>
       </c>
       <c r="E125" s="1">
-        <v>41152</v>
+        <v>41719</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4978,24 +4978,24 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="B126" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="C126">
-        <v>-23.808333333333302</v>
+        <v>-17.283333333333299</v>
       </c>
       <c r="D126">
-        <v>152.291666666666</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="E126" s="1">
-        <v>41529</v>
+        <v>40965</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5004,24 +5004,24 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="C127">
-        <v>-23.808333333333302</v>
+        <v>-17.233333333333299</v>
       </c>
       <c r="D127">
-        <v>152.291666666666</v>
+        <v>146.48333333333301</v>
       </c>
       <c r="E127" s="1">
-        <v>40876</v>
+        <v>40964</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5030,24 +5030,24 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C128">
-        <v>-19.758333333333301</v>
+        <v>-17.2083333333333</v>
       </c>
       <c r="D128">
-        <v>150.09166666666599</v>
+        <v>146.083333333333</v>
       </c>
       <c r="E128" s="1">
-        <v>41381</v>
+        <v>41292</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5056,76 +5056,76 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C129">
-        <v>-15.65</v>
+        <v>-16.925000000000001</v>
       </c>
       <c r="D129">
-        <v>145.71666666666599</v>
+        <v>145.98333333333301</v>
       </c>
       <c r="E129" s="1">
-        <v>41191</v>
+        <v>40971</v>
       </c>
       <c r="F129">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>1.127</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C130">
-        <v>-15.65</v>
+        <v>-16.8666666666666</v>
       </c>
       <c r="D130">
-        <v>145.71666666666599</v>
+        <v>146.23333333333301</v>
       </c>
       <c r="E130" s="1">
-        <v>41986</v>
+        <v>40962</v>
       </c>
       <c r="F130">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.57099999999999995</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C131">
-        <v>-21.9583333333333</v>
+        <v>-16.8666666666666</v>
       </c>
       <c r="D131">
-        <v>152.6</v>
+        <v>146.23333333333301</v>
       </c>
       <c r="E131" s="1">
-        <v>41602</v>
+        <v>41711</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5134,388 +5134,388 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="C132">
-        <v>-21.9583333333333</v>
+        <v>-16.808333333333302</v>
       </c>
       <c r="D132">
-        <v>152.6</v>
+        <v>146.19166666666601</v>
       </c>
       <c r="E132" s="1">
-        <v>40917</v>
+        <v>40962</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C133">
-        <v>-17.676666666666598</v>
+        <v>-16.808333333333302</v>
       </c>
       <c r="D133">
-        <v>146.17500000000001</v>
+        <v>146.19166666666601</v>
       </c>
       <c r="E133" s="1">
-        <v>41292</v>
+        <v>41290</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H133">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C134">
-        <v>-18.633333333333301</v>
+        <v>-16.758333333333301</v>
       </c>
       <c r="D134">
-        <v>147.058333333333</v>
+        <v>145.97999999999999</v>
       </c>
       <c r="E134" s="1">
-        <v>41427</v>
+        <v>40971</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>1.0999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H134">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C135">
-        <v>-9.8203333333333305</v>
+        <v>-16.758333333333301</v>
       </c>
       <c r="D135">
-        <v>143.409666666666</v>
+        <v>145.97999999999999</v>
       </c>
       <c r="E135" s="1">
-        <v>41323</v>
+        <v>41289</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G135">
-        <v>0.16</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="H135">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C136">
-        <v>-12.233333333333301</v>
+        <v>-16.716666666666601</v>
       </c>
       <c r="D136">
-        <v>143.28333333333299</v>
+        <v>146.06666666666601</v>
       </c>
       <c r="E136" s="1">
-        <v>41313</v>
+        <v>40959</v>
       </c>
       <c r="F136">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="C137">
-        <v>-18.441666666666599</v>
+        <v>-16.716666666666601</v>
       </c>
       <c r="D137">
-        <v>146.99166666666599</v>
+        <v>146.06666666666601</v>
       </c>
       <c r="E137" s="1">
-        <v>41755</v>
+        <v>41716</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G137">
-        <v>1.7999999999999999E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H137">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C138">
-        <v>-18.5833333333333</v>
+        <v>-16.649999999999999</v>
       </c>
       <c r="D138">
-        <v>147.558333333333</v>
+        <v>146</v>
       </c>
       <c r="E138" s="1">
-        <v>41764</v>
+        <v>41288</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H138">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C139">
-        <v>-18.5833333333333</v>
+        <v>-16.5833333333333</v>
       </c>
       <c r="D139">
-        <v>147.558333333333</v>
+        <v>146.016666666666</v>
       </c>
       <c r="E139" s="1">
-        <v>41022</v>
+        <v>41288</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H139">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C140">
-        <v>-23.908333333333299</v>
+        <v>-16.516666666666602</v>
       </c>
       <c r="D140">
-        <v>152.40833333333299</v>
+        <v>146.016666666666</v>
       </c>
       <c r="E140" s="1">
-        <v>41526</v>
+        <v>40958</v>
       </c>
       <c r="F140">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0.39700000000000002</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B141" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C141">
-        <v>-23.908333333333299</v>
+        <v>-16.516666666666602</v>
       </c>
       <c r="D141">
-        <v>152.40833333333299</v>
+        <v>146.016666666666</v>
       </c>
       <c r="E141" s="1">
-        <v>41143</v>
+        <v>41286</v>
       </c>
       <c r="F141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0.26200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="C142">
-        <v>-23.908333333333299</v>
+        <v>-16.516666666666602</v>
       </c>
       <c r="D142">
-        <v>152.40833333333299</v>
+        <v>146.016666666666</v>
       </c>
       <c r="E142" s="1">
-        <v>40874</v>
+        <v>41715</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H142">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C143">
-        <v>-20.091666666666601</v>
+        <v>-16.216666666666601</v>
       </c>
       <c r="D143">
-        <v>148.875</v>
+        <v>145.891666666666</v>
       </c>
       <c r="E143" s="1">
-        <v>41385</v>
+        <v>41278</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="C144">
-        <v>-15.65</v>
+        <v>-16.2083333333333</v>
       </c>
       <c r="D144">
         <v>145.80000000000001</v>
       </c>
       <c r="E144" s="1">
-        <v>41986</v>
+        <v>41285</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H144">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="C145">
-        <v>-14.783333333333299</v>
+        <v>-16.108333333333299</v>
       </c>
       <c r="D145">
-        <v>145.34166666666599</v>
+        <v>145.833333333333</v>
       </c>
       <c r="E145" s="1">
-        <v>41200</v>
+        <v>40957</v>
       </c>
       <c r="F145">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0.97099999999999997</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C146">
-        <v>-18.475000000000001</v>
+        <v>-16.108333333333299</v>
       </c>
       <c r="D146">
-        <v>147</v>
+        <v>145.833333333333</v>
       </c>
       <c r="E146" s="1">
-        <v>41756</v>
+        <v>41285</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5524,137 +5524,137 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C147">
-        <v>-18.475000000000001</v>
+        <v>-16.108333333333299</v>
       </c>
       <c r="D147">
-        <v>147</v>
+        <v>145.833333333333</v>
       </c>
       <c r="E147" s="1">
-        <v>41015</v>
+        <v>41713</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H147">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="B148" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="C148">
-        <v>-14.675000000000001</v>
+        <v>-16.0833333333333</v>
       </c>
       <c r="D148">
-        <v>145.46666666666599</v>
+        <v>145.72499999999999</v>
       </c>
       <c r="E148" s="1">
-        <v>41204</v>
+        <v>41282</v>
       </c>
       <c r="F148">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G148">
-        <v>0.74399999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H148">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="C149">
-        <v>-14.675000000000001</v>
+        <v>-16.05</v>
       </c>
       <c r="D149">
-        <v>145.46666666666599</v>
+        <v>145.85833333333301</v>
       </c>
       <c r="E149" s="1">
-        <v>41983</v>
+        <v>40957</v>
       </c>
       <c r="F149">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>9.4E-2</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C150">
-        <v>-14.65</v>
+        <v>-16.05</v>
       </c>
       <c r="D150">
-        <v>145.49166666666599</v>
+        <v>145.85833333333301</v>
       </c>
       <c r="E150" s="1">
-        <v>41207</v>
+        <v>41285</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>0.26300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C151">
-        <v>-14.65</v>
+        <v>-16.05</v>
       </c>
       <c r="D151">
-        <v>145.49166666666599</v>
+        <v>145.85833333333301</v>
       </c>
       <c r="E151" s="1">
-        <v>41974</v>
+        <v>41714</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.66700000000000004</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5685,103 +5685,103 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C153">
-        <v>-13.775</v>
+        <v>-15.65</v>
       </c>
       <c r="D153">
-        <v>143.833333333333</v>
+        <v>145.71666666666599</v>
       </c>
       <c r="E153" s="1">
-        <v>41309</v>
+        <v>41191</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1.127</v>
       </c>
       <c r="H153">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C154">
-        <v>-14.7666666666666</v>
+        <v>-15.65</v>
       </c>
       <c r="D154">
-        <v>145.35833333333301</v>
+        <v>145.71666666666599</v>
       </c>
       <c r="E154" s="1">
-        <v>41201</v>
+        <v>41986</v>
       </c>
       <c r="F154">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G154">
-        <v>0.50700000000000001</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="H154">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="C155">
-        <v>-15.2</v>
+        <v>-15.65</v>
       </c>
       <c r="D155">
-        <v>145.61666666666599</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="E155" s="1">
-        <v>41209</v>
+        <v>41986</v>
       </c>
       <c r="F155">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.46899999999999997</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="B156" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="C156">
-        <v>-15.2</v>
+        <v>-15.608333333333301</v>
       </c>
       <c r="D156">
-        <v>145.61666666666599</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="E156" s="1">
-        <v>41985</v>
+        <v>41969</v>
       </c>
       <c r="F156">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>2.484</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>31</v>
@@ -5789,71 +5789,71 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B157" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C157">
-        <v>-9.7520000000000007</v>
+        <v>-15.5583333333333</v>
       </c>
       <c r="D157">
-        <v>143.406166666666</v>
+        <v>145.65</v>
       </c>
       <c r="E157" s="1">
-        <v>41324</v>
+        <v>41191</v>
       </c>
       <c r="F157">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G157">
-        <v>0.09</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H157">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="C158">
-        <v>-23.5416666666666</v>
+        <v>-15.5583333333333</v>
       </c>
       <c r="D158">
-        <v>151.73333333333301</v>
+        <v>145.65</v>
       </c>
       <c r="E158" s="1">
-        <v>41532</v>
+        <v>41969</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="H158">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="C159">
-        <v>-23.5416666666666</v>
+        <v>-15.483333333333301</v>
       </c>
       <c r="D159">
-        <v>151.73333333333301</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="E159" s="1">
-        <v>40881</v>
+        <v>41969</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5862,550 +5862,550 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="C160">
-        <v>-17.283333333333299</v>
+        <v>-15.466666666666599</v>
       </c>
       <c r="D160">
-        <v>146.44999999999999</v>
+        <v>145.683333333333</v>
       </c>
       <c r="E160" s="1">
-        <v>40965</v>
+        <v>41191</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="H160">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C161">
-        <v>-9.9183333333333294</v>
+        <v>-15.4166666666666</v>
       </c>
       <c r="D161">
-        <v>144.05166666666599</v>
+        <v>145.42500000000001</v>
       </c>
       <c r="E161" s="1">
-        <v>41328</v>
+        <v>41211</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G161">
-        <v>1.7999999999999999E-2</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H161">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C162">
-        <v>-16.5833333333333</v>
+        <v>-15.316666666666601</v>
       </c>
       <c r="D162">
-        <v>146.016666666666</v>
+        <v>145.766666666666</v>
       </c>
       <c r="E162" s="1">
-        <v>41288</v>
+        <v>41210</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="C163">
-        <v>-11.7633333333333</v>
+        <v>-15.283333333333299</v>
       </c>
       <c r="D163">
-        <v>143.65166666666599</v>
+        <v>145.75</v>
       </c>
       <c r="E163" s="1">
-        <v>41314</v>
+        <v>41210</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C164">
-        <v>-11.771666666666601</v>
+        <v>-15.283333333333299</v>
       </c>
       <c r="D164">
-        <v>143.65833333333299</v>
+        <v>145.75</v>
       </c>
       <c r="E164" s="1">
-        <v>41314</v>
+        <v>41985</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>9.0999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="C165">
-        <v>-16.8666666666666</v>
+        <v>-15.2416666666666</v>
       </c>
       <c r="D165">
-        <v>146.23333333333301</v>
+        <v>145.53333333333299</v>
       </c>
       <c r="E165" s="1">
-        <v>41711</v>
+        <v>41978</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H165">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B166" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C166">
-        <v>-16.8666666666666</v>
+        <v>-15.2083333333333</v>
       </c>
       <c r="D166">
-        <v>146.23333333333301</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="E166" s="1">
-        <v>40962</v>
+        <v>41209</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H166">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C167">
-        <v>-13.483333333333301</v>
+        <v>-15.2083333333333</v>
       </c>
       <c r="D167">
-        <v>143.73333333333301</v>
+        <v>145.55000000000001</v>
       </c>
       <c r="E167" s="1">
-        <v>41310</v>
+        <v>41978</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="H167">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="C168">
-        <v>-18.266666666666602</v>
+        <v>-15.2</v>
       </c>
       <c r="D168">
-        <v>147.391666666666</v>
+        <v>145.61666666666599</v>
       </c>
       <c r="E168" s="1">
-        <v>41419</v>
+        <v>41209</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="H168">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B169" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C169">
-        <v>-14.65</v>
+        <v>-15.2</v>
       </c>
       <c r="D169">
-        <v>145.65</v>
+        <v>145.61666666666599</v>
       </c>
       <c r="E169" s="1">
-        <v>41192</v>
+        <v>41985</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>2.484</v>
       </c>
       <c r="H169">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C170">
-        <v>-14.65</v>
+        <v>-15.1666666666666</v>
       </c>
       <c r="D170">
-        <v>145.65</v>
+        <v>145.5</v>
       </c>
       <c r="E170" s="1">
-        <v>41972</v>
+        <v>41209</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="H170">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="C171">
-        <v>-17.2083333333333</v>
+        <v>-15.1666666666666</v>
       </c>
       <c r="D171">
-        <v>146.083333333333</v>
+        <v>145.5</v>
       </c>
       <c r="E171" s="1">
-        <v>41292</v>
+        <v>41984</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="H171">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="B172" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="C172">
-        <v>-14.7416666666666</v>
+        <v>-15.133333333333301</v>
       </c>
       <c r="D172">
-        <v>145.50833333333301</v>
+        <v>145.69166666666601</v>
       </c>
       <c r="E172" s="1">
-        <v>41207</v>
+        <v>41985</v>
       </c>
       <c r="F172">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B173" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C173">
-        <v>-14.7416666666666</v>
+        <v>-15.1166666666666</v>
       </c>
       <c r="D173">
-        <v>145.50833333333301</v>
+        <v>145.42500000000001</v>
       </c>
       <c r="E173" s="1">
-        <v>41982</v>
+        <v>41208</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B174" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C174">
-        <v>-23.183333333333302</v>
+        <v>-15.025</v>
       </c>
       <c r="D174">
-        <v>151.90833333333299</v>
+        <v>145.44166666666601</v>
       </c>
       <c r="E174" s="1">
-        <v>41535</v>
+        <v>41208</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="H174">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C175">
-        <v>-13.5416666666666</v>
+        <v>-14.95</v>
       </c>
       <c r="D175">
-        <v>143.791666666666</v>
+        <v>145.49166666666599</v>
       </c>
       <c r="E175" s="1">
-        <v>41310</v>
+        <v>41208</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G175">
-        <v>1.6E-2</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="H175">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="C176">
-        <v>-23.5</v>
+        <v>-14.95</v>
       </c>
       <c r="D176">
-        <v>152.06666666666601</v>
+        <v>145.49166666666599</v>
       </c>
       <c r="E176" s="1">
-        <v>41144</v>
+        <v>41984</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="H176">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="C177">
-        <v>-16.216666666666601</v>
+        <v>-14.8916666666666</v>
       </c>
       <c r="D177">
-        <v>145.891666666666</v>
+        <v>145.47499999999999</v>
       </c>
       <c r="E177" s="1">
-        <v>41278</v>
+        <v>41984</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="H177">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C178">
-        <v>-13.0416666666666</v>
+        <v>-14.824999999999999</v>
       </c>
       <c r="D178">
-        <v>143.625</v>
+        <v>145.52500000000001</v>
       </c>
       <c r="E178" s="1">
-        <v>41312</v>
+        <v>41207</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>1.222</v>
       </c>
       <c r="H178">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="C179">
-        <v>-20.483333333333299</v>
+        <v>-14.824999999999999</v>
       </c>
       <c r="D179">
-        <v>150.208333333333</v>
+        <v>145.52500000000001</v>
       </c>
       <c r="E179" s="1">
-        <v>41159</v>
+        <v>41983</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H179">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="B180" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="C180">
-        <v>-11.566666666666601</v>
+        <v>-14.783333333333299</v>
       </c>
       <c r="D180">
-        <v>143.71666666666599</v>
+        <v>145.34166666666599</v>
       </c>
       <c r="E180" s="1">
-        <v>41314</v>
+        <v>41200</v>
       </c>
       <c r="F180">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G180">
-        <v>8.5999999999999993E-2</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="H180">
         <v>35</v>
@@ -6413,71 +6413,71 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B181" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C181">
-        <v>-17.483333333333299</v>
+        <v>-14.7666666666666</v>
       </c>
       <c r="D181">
-        <v>146.391666666666</v>
+        <v>145.35833333333301</v>
       </c>
       <c r="E181" s="1">
-        <v>41719</v>
+        <v>41201</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="H181">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C182">
-        <v>-17.483333333333299</v>
+        <v>-14.7416666666666</v>
       </c>
       <c r="D182">
-        <v>146.391666666666</v>
+        <v>145.50833333333301</v>
       </c>
       <c r="E182" s="1">
-        <v>40967</v>
+        <v>41207</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="H182">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C183">
-        <v>-13.9166666666666</v>
+        <v>-14.7416666666666</v>
       </c>
       <c r="D183">
-        <v>143.84166666666599</v>
+        <v>145.50833333333301</v>
       </c>
       <c r="E183" s="1">
-        <v>41309</v>
+        <v>41982</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -6486,180 +6486,180 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C184">
-        <v>-20.941666666666599</v>
+        <v>-14.716666666666599</v>
       </c>
       <c r="D184">
-        <v>150.53333333333299</v>
+        <v>145.375</v>
       </c>
       <c r="E184" s="1">
-        <v>41620</v>
+        <v>41201</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="H184">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C185">
-        <v>-20.941666666666599</v>
+        <v>-14.716666666666599</v>
       </c>
       <c r="D185">
-        <v>150.53333333333299</v>
+        <v>145.375</v>
       </c>
       <c r="E185" s="1">
-        <v>40863</v>
+        <v>41983</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H185">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="C186">
-        <v>-20.9916666666666</v>
+        <v>-14.675000000000001</v>
       </c>
       <c r="D186">
-        <v>150.52500000000001</v>
+        <v>145.46666666666599</v>
       </c>
       <c r="E186" s="1">
-        <v>41748</v>
+        <v>41204</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H186">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B187" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="C187">
-        <v>-20.9916666666666</v>
+        <v>-14.675000000000001</v>
       </c>
       <c r="D187">
-        <v>150.52500000000001</v>
+        <v>145.46666666666599</v>
       </c>
       <c r="E187" s="1">
-        <v>40922</v>
+        <v>41983</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H187">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C188">
-        <v>-12.4</v>
+        <v>-14.65</v>
       </c>
       <c r="D188">
-        <v>143.53333333333299</v>
+        <v>145.49166666666599</v>
       </c>
       <c r="E188" s="1">
-        <v>41313</v>
+        <v>41207</v>
       </c>
       <c r="F188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="H188">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="C189">
-        <v>-19.808333333333302</v>
+        <v>-14.65</v>
       </c>
       <c r="D189">
-        <v>150.15</v>
+        <v>145.49166666666599</v>
       </c>
       <c r="E189" s="1">
-        <v>41379</v>
+        <v>41974</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H189">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B190" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C190">
-        <v>-18.483333333333299</v>
+        <v>-14.65</v>
       </c>
       <c r="D190">
-        <v>146.88333333333301</v>
+        <v>145.65</v>
       </c>
       <c r="E190" s="1">
-        <v>41721</v>
+        <v>41192</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -6668,50 +6668,50 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B191" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C191">
-        <v>-18.483333333333299</v>
+        <v>-14.65</v>
       </c>
       <c r="D191">
-        <v>146.88333333333301</v>
+        <v>145.65</v>
       </c>
       <c r="E191" s="1">
-        <v>41436</v>
+        <v>41972</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C192">
-        <v>-18.483333333333299</v>
+        <v>-14.6</v>
       </c>
       <c r="D192">
-        <v>146.88333333333301</v>
+        <v>145.625</v>
       </c>
       <c r="E192" s="1">
-        <v>41017</v>
+        <v>41193</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -6720,24 +6720,24 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>71</v>
       </c>
       <c r="C193">
-        <v>-15.608333333333301</v>
+        <v>-14.6</v>
       </c>
       <c r="D193">
-        <v>145.80000000000001</v>
+        <v>145.625</v>
       </c>
       <c r="E193" s="1">
-        <v>41969</v>
+        <v>41971</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -6746,24 +6746,24 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="C194">
-        <v>-15.483333333333301</v>
+        <v>-14.55</v>
       </c>
       <c r="D194">
-        <v>145.80000000000001</v>
+        <v>145.583333333333</v>
       </c>
       <c r="E194" s="1">
-        <v>41969</v>
+        <v>41205</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -6772,24 +6772,24 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B195" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C195">
-        <v>-15.283333333333299</v>
+        <v>-14.55</v>
       </c>
       <c r="D195">
-        <v>145.75</v>
+        <v>145.583333333333</v>
       </c>
       <c r="E195" s="1">
-        <v>41210</v>
+        <v>41972</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6798,24 +6798,24 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="C196">
-        <v>-15.283333333333299</v>
+        <v>-14.283333333333299</v>
       </c>
       <c r="D196">
-        <v>145.75</v>
+        <v>145.17500000000001</v>
       </c>
       <c r="E196" s="1">
-        <v>41985</v>
+        <v>41977</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6824,154 +6824,154 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>274</v>
+        <v>25</v>
       </c>
       <c r="C197">
-        <v>-13.925000000000001</v>
+        <v>-14.066666666666601</v>
       </c>
       <c r="D197">
-        <v>144.36666666666599</v>
+        <v>144.24166666666599</v>
       </c>
       <c r="E197" s="1">
-        <v>41976</v>
+        <v>41306</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H197">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="C198">
-        <v>-18.433333333333302</v>
+        <v>-14.008333333333301</v>
       </c>
       <c r="D198">
-        <v>147.06666666666601</v>
+        <v>143.99166666666599</v>
       </c>
       <c r="E198" s="1">
-        <v>41757</v>
+        <v>41308</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H198">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="C199">
-        <v>-18.433333333333302</v>
+        <v>-14</v>
       </c>
       <c r="D199">
-        <v>147.06666666666601</v>
+        <v>144.10833333333301</v>
       </c>
       <c r="E199" s="1">
-        <v>41019</v>
+        <v>41307</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="H199">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="C200">
-        <v>-11.908333333333299</v>
+        <v>-13.975</v>
       </c>
       <c r="D200">
-        <v>143.46666666666599</v>
+        <v>144.458333333333</v>
       </c>
       <c r="E200" s="1">
-        <v>41313</v>
+        <v>41976</v>
       </c>
       <c r="F200">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>0.89500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="C201">
-        <v>-11.908333333333299</v>
+        <v>-13.925000000000001</v>
       </c>
       <c r="D201">
-        <v>143.46666666666599</v>
+        <v>144.36666666666599</v>
       </c>
       <c r="E201" s="1">
-        <v>41313</v>
+        <v>41976</v>
       </c>
       <c r="F201">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G201">
-        <v>0.60899999999999999</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="C202">
-        <v>-19.6666666666666</v>
+        <v>-13.9166666666666</v>
       </c>
       <c r="D202">
-        <v>149.92500000000001</v>
+        <v>143.84166666666599</v>
       </c>
       <c r="E202" s="1">
-        <v>41381</v>
+        <v>41309</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -6980,102 +6980,102 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="B203" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="C203">
-        <v>-21.875</v>
+        <v>-13.908333333333299</v>
       </c>
       <c r="D203">
-        <v>152.50833333333301</v>
+        <v>143.958333333333</v>
       </c>
       <c r="E203" s="1">
-        <v>41603</v>
+        <v>41308</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H203">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="B204" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="C204">
-        <v>-21.875</v>
+        <v>-13.8666666666666</v>
       </c>
       <c r="D204">
-        <v>152.50833333333301</v>
+        <v>144.09166666666599</v>
       </c>
       <c r="E204" s="1">
-        <v>40918</v>
+        <v>41307</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H204">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C205">
-        <v>-22.024999999999999</v>
+        <v>-13.8666666666666</v>
       </c>
       <c r="D205">
-        <v>152.15</v>
+        <v>144.09166666666599</v>
       </c>
       <c r="E205" s="1">
-        <v>41878</v>
+        <v>41975</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="H205">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="C206">
-        <v>-22.024999999999999</v>
+        <v>-13.783333333333299</v>
       </c>
       <c r="D206">
-        <v>152.15</v>
+        <v>144.266666666666</v>
       </c>
       <c r="E206" s="1">
-        <v>41157</v>
+        <v>41975</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -7084,76 +7084,76 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B207" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C207">
-        <v>-14.824999999999999</v>
+        <v>-13.775</v>
       </c>
       <c r="D207">
-        <v>145.52500000000001</v>
+        <v>143.833333333333</v>
       </c>
       <c r="E207" s="1">
-        <v>41207</v>
+        <v>41309</v>
       </c>
       <c r="F207">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1.222</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B208" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C208">
-        <v>-14.824999999999999</v>
+        <v>-13.758333333333301</v>
       </c>
       <c r="D208">
-        <v>145.52500000000001</v>
+        <v>143.99166666666599</v>
       </c>
       <c r="E208" s="1">
-        <v>41983</v>
+        <v>41309</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G208">
-        <v>2.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H208">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="B209" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C209">
-        <v>-16.108333333333299</v>
+        <v>-13.625</v>
       </c>
       <c r="D209">
-        <v>145.833333333333</v>
+        <v>144.10833333333301</v>
       </c>
       <c r="E209" s="1">
-        <v>40957</v>
+        <v>41975</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -7162,50 +7162,50 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="B210" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="C210">
-        <v>-16.108333333333299</v>
+        <v>-13.5416666666666</v>
       </c>
       <c r="D210">
-        <v>145.833333333333</v>
+        <v>143.791666666666</v>
       </c>
       <c r="E210" s="1">
-        <v>41713</v>
+        <v>41310</v>
       </c>
       <c r="F210">
         <v>1</v>
       </c>
       <c r="G210">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H210">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="B211" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="C211">
-        <v>-16.108333333333299</v>
+        <v>-13.483333333333301</v>
       </c>
       <c r="D211">
-        <v>145.833333333333</v>
+        <v>143.73333333333301</v>
       </c>
       <c r="E211" s="1">
-        <v>41285</v>
+        <v>41310</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -7214,180 +7214,180 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B212" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C212">
-        <v>-15.2083333333333</v>
+        <v>-13.4166666666666</v>
       </c>
       <c r="D212">
-        <v>145.55000000000001</v>
+        <v>143.75</v>
       </c>
       <c r="E212" s="1">
-        <v>41209</v>
+        <v>41311</v>
       </c>
       <c r="F212">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G212">
-        <v>1.2250000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H212">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B213" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C213">
-        <v>-15.2083333333333</v>
+        <v>-13.275</v>
       </c>
       <c r="D213">
-        <v>145.55000000000001</v>
+        <v>143.69166666666601</v>
       </c>
       <c r="E213" s="1">
-        <v>41978</v>
+        <v>41311</v>
       </c>
       <c r="F213">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>2.1789999999999998</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H213">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="C214">
-        <v>-15.2416666666666</v>
+        <v>-13.0416666666666</v>
       </c>
       <c r="D214">
-        <v>145.53333333333299</v>
+        <v>143.625</v>
       </c>
       <c r="E214" s="1">
-        <v>41978</v>
+        <v>41312</v>
       </c>
       <c r="F214">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C215">
-        <v>-17.8333333333333</v>
+        <v>-12.591666666666599</v>
       </c>
       <c r="D215">
-        <v>146.55000000000001</v>
+        <v>143.55000000000001</v>
       </c>
       <c r="E215" s="1">
-        <v>40969</v>
+        <v>41312</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H215">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="B216" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="C216">
-        <v>-20.908333333333299</v>
+        <v>-12.4</v>
       </c>
       <c r="D216">
-        <v>150.03333333333299</v>
+        <v>143.53333333333299</v>
       </c>
       <c r="E216" s="1">
-        <v>41752</v>
+        <v>41313</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="B217" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="C217">
-        <v>-20.908333333333299</v>
+        <v>-12.233333333333301</v>
       </c>
       <c r="D217">
-        <v>150.03333333333299</v>
+        <v>143.28333333333299</v>
       </c>
       <c r="E217" s="1">
-        <v>40928</v>
+        <v>41313</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>0.254</v>
       </c>
       <c r="H217">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="B218" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="C218">
-        <v>-16.808333333333302</v>
+        <v>-11.925000000000001</v>
       </c>
       <c r="D218">
-        <v>146.19166666666601</v>
+        <v>143.683333333333</v>
       </c>
       <c r="E218" s="1">
-        <v>40962</v>
+        <v>41314</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -7396,215 +7396,215 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="C219">
-        <v>-16.808333333333302</v>
+        <v>-11.925000000000001</v>
       </c>
       <c r="D219">
-        <v>146.19166666666601</v>
+        <v>143.683333333333</v>
       </c>
       <c r="E219" s="1">
-        <v>41290</v>
+        <v>41314</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G219">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C220">
-        <v>-15.1166666666666</v>
+        <v>-11.925000000000001</v>
       </c>
       <c r="D220">
-        <v>145.42500000000001</v>
+        <v>143.683333333333</v>
       </c>
       <c r="E220" s="1">
-        <v>41208</v>
+        <v>41314</v>
       </c>
       <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
         <v>12</v>
-      </c>
-      <c r="G220">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="H220">
-        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B221" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="C221">
-        <v>-21.725000000000001</v>
+        <v>-11.908333333333299</v>
       </c>
       <c r="D221">
-        <v>152.558333333333</v>
+        <v>143.46666666666599</v>
       </c>
       <c r="E221" s="1">
-        <v>41877</v>
+        <v>41313</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H221">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C222">
-        <v>-21.725000000000001</v>
+        <v>-11.908333333333299</v>
       </c>
       <c r="D222">
-        <v>152.558333333333</v>
+        <v>143.46666666666599</v>
       </c>
       <c r="E222" s="1">
-        <v>41151</v>
+        <v>41313</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H222">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>258</v>
       </c>
       <c r="C223">
-        <v>-15.025</v>
+        <v>-11.771666666666601</v>
       </c>
       <c r="D223">
-        <v>145.44166666666601</v>
+        <v>143.65833333333299</v>
       </c>
       <c r="E223" s="1">
-        <v>41208</v>
+        <v>41314</v>
       </c>
       <c r="F223">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G223">
-        <v>2.76</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H223">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B224" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C224">
-        <v>-16.649999999999999</v>
+        <v>-11.7633333333333</v>
       </c>
       <c r="D224">
-        <v>146</v>
+        <v>143.65166666666599</v>
       </c>
       <c r="E224" s="1">
-        <v>41288</v>
+        <v>41314</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
       <c r="G224">
-        <v>2.5999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H224">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B225" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="C225">
-        <v>-21.983333333333299</v>
+        <v>-11.566666666666601</v>
       </c>
       <c r="D225">
-        <v>152.65</v>
+        <v>143.71666666666599</v>
       </c>
       <c r="E225" s="1">
-        <v>41537</v>
+        <v>41314</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H225">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B226" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C226">
-        <v>-21.983333333333299</v>
+        <v>-9.952</v>
       </c>
       <c r="D226">
-        <v>152.65</v>
+        <v>143.28966666666599</v>
       </c>
       <c r="E226" s="1">
-        <v>40916</v>
+        <v>41321</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="H226">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7661,111 +7661,114 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B229" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C229">
-        <v>-23.3333333333333</v>
+        <v>-9.9183333333333294</v>
       </c>
       <c r="D229">
-        <v>151.96666666666599</v>
+        <v>144.05166666666599</v>
       </c>
       <c r="E229" s="1">
-        <v>41871</v>
+        <v>41328</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H229">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B230" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C230">
-        <v>-23.3333333333333</v>
+        <v>-9.8678333333333299</v>
       </c>
       <c r="D230">
-        <v>151.96666666666599</v>
+        <v>143.39449999999999</v>
       </c>
       <c r="E230" s="1">
-        <v>41146</v>
+        <v>41323</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H230">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B231" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C231">
-        <v>-14.6</v>
+        <v>-9.8203333333333305</v>
       </c>
       <c r="D231">
-        <v>145.625</v>
+        <v>143.409666666666</v>
       </c>
       <c r="E231" s="1">
-        <v>41193</v>
+        <v>41323</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H231">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B232" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C232">
-        <v>-14.6</v>
+        <v>-9.7520000000000007</v>
       </c>
       <c r="D232">
-        <v>145.625</v>
+        <v>143.406166666666</v>
       </c>
       <c r="E232" s="1">
-        <v>41971</v>
+        <v>41324</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="H232">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H232">
-    <sortCondition ref="A92"/>
+  <sortState ref="A2:H234">
+    <sortCondition ref="C2:C234"/>
+    <sortCondition ref="B2:B234"/>
+    <sortCondition ref="D2:D234"/>
+    <sortCondition ref="E2:E234"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
